--- a/Data/Australian Soils.xlsx
+++ b/Data/Australian Soils.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitgajurel\Google Drive\Thesis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rworking\RProject\MS_Thesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Simplified Data" sheetId="2" r:id="rId1"/>
     <sheet name="Australian_Lime_Cement" sheetId="1" r:id="rId2"/>
     <sheet name="all_soils" sheetId="3" r:id="rId3"/>
     <sheet name="montana_soils" sheetId="5" r:id="rId4"/>
+    <sheet name="American_modified_proctor" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="148">
   <si>
     <t>Cement</t>
   </si>
@@ -463,6 +464,15 @@
   <si>
     <t>NTF_HP</t>
   </si>
+  <si>
+    <t>Kaolinite Clay</t>
+  </si>
+  <si>
+    <t>Illitle Clay</t>
+  </si>
+  <si>
+    <t>Montmorillonite Clay</t>
+  </si>
 </sst>
 </file>
 
@@ -485,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +544,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -591,11 +607,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -616,6 +641,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -34111,9 +34145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35148,4 +35182,439 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="15">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>5.6</v>
+      </c>
+      <c r="E2">
+        <v>94.4</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>350</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="15">
+        <v>19</v>
+      </c>
+      <c r="C3" s="15">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>5.6</v>
+      </c>
+      <c r="E3">
+        <v>94.4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>740</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="15">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>5.6</v>
+      </c>
+      <c r="E4">
+        <v>94.4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1200</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="15">
+        <v>51</v>
+      </c>
+      <c r="C5" s="15">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>330</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="15">
+        <v>51</v>
+      </c>
+      <c r="C6" s="15">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>450</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="15">
+        <v>51</v>
+      </c>
+      <c r="C7" s="15">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="15">
+        <v>54.8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>27.1</v>
+      </c>
+      <c r="D8">
+        <v>93.6</v>
+      </c>
+      <c r="E8">
+        <v>6.4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>395</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="15">
+        <v>54.8</v>
+      </c>
+      <c r="C9" s="15">
+        <v>27.1</v>
+      </c>
+      <c r="D9">
+        <v>93.6</v>
+      </c>
+      <c r="E9">
+        <v>6.4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>585</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="15">
+        <v>54.8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>27.1</v>
+      </c>
+      <c r="D10">
+        <v>93.6</v>
+      </c>
+      <c r="E10">
+        <v>6.4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>730</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="15">
+        <v>87.1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="D11">
+        <v>82.5</v>
+      </c>
+      <c r="E11">
+        <v>17.5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>420</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="15">
+        <v>87.1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="D12">
+        <v>82.5</v>
+      </c>
+      <c r="E12">
+        <v>17.5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>610</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="15">
+        <v>87.1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="D13">
+        <v>82.5</v>
+      </c>
+      <c r="E13">
+        <v>17.5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>880</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>